--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,156 +52,174 @@
     <t>warning</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>energy</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
@@ -211,13 +229,16 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -581,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -650,38 +671,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L3">
-        <v>56</v>
-      </c>
-      <c r="M3">
-        <v>56</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -692,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,16 +742,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,16 +792,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,16 +842,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7328767123287672</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.6883561643835616</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8515625</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,16 +992,16 @@
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,16 +1042,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.825</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4117647058823529</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8083333333333333</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3733333333333334</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3604651162790697</v>
+        <v>0.3895348837209303</v>
       </c>
       <c r="C13">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3422818791946309</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3116883116883117</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2888888888888889</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2804232804232804</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7735849056603774</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L17">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1944444444444444</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,31 +1439,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.74375</v>
+      </c>
+      <c r="L18">
+        <v>119</v>
+      </c>
+      <c r="M18">
+        <v>119</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
-      <c r="M18">
-        <v>47</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1126005361930295</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>331</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.70625</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,21 +1513,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>330</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.648936170212766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1544,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6501305483028721</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1570,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6388888888888888</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1596,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6161879895561357</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1622,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.5911764705882353</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L25">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1648,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.559322033898305</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1674,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5588235294117647</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1700,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5168539325842697</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1726,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5116279069767442</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1752,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.5111111111111111</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1778,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.4686192468619247</v>
+        <v>0.55</v>
       </c>
       <c r="L31">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1804,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.453125</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1830,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.4383561643835616</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.3974358974358974</v>
+        <v>0.4375</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.2857142857142857</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1934,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.1220095693779904</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1960,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>367</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.09375</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1986,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>377</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.07270693512304251</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2012,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>829</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.06116207951070336</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2038,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>307</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.048834628190899</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L41">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2064,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>857</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.04307692307692308</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2090,111 +2135,267 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>622</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.03651685393258427</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="L43">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2058</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.03236994219653179</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.01581155211358503</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>3050</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.007207771858351614</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N46">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3168</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47">
+        <v>0.04041570438799076</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>36</v>
+      </c>
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+      <c r="O47">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48">
+        <v>0.04006163328197226</v>
+      </c>
+      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0.96</v>
+      </c>
+      <c r="O48">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49">
+        <v>0.02667290594291062</v>
+      </c>
+      <c r="L49">
+        <v>57</v>
+      </c>
+      <c r="M49">
+        <v>63</v>
+      </c>
+      <c r="N49">
+        <v>0.9</v>
+      </c>
+      <c r="O49">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50">
+        <v>0.02068252326783868</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>0.95</v>
+      </c>
+      <c r="O50">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51">
+        <v>0.01483392454047082</v>
+      </c>
+      <c r="L51">
+        <v>46</v>
+      </c>
+      <c r="M51">
+        <v>52</v>
+      </c>
+      <c r="N51">
+        <v>0.88</v>
+      </c>
+      <c r="O51">
+        <v>0.12</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52">
+        <v>0.007514088916718848</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>31</v>
+      </c>
+      <c r="N52">
+        <v>0.77</v>
+      </c>
+      <c r="O52">
+        <v>0.23</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
